--- a/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
+++ b/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,597 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
+++ b/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.75</v>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1485,13 +1528,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
+++ b/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.75</v>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1710,13 +1775,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
+++ b/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,395 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010371</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成成长进取混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2153</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>200015</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城优化升级混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1319</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0992</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011506</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0736</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010372</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成成长进取混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010665</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时高端装备混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0530</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010666</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时高端装备混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011507</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -852,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501079</t>
+          <t>012473</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6347</t>
+          <t>0.2636</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -951,26 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>86.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2779</t>
+          <t>0.2046</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -979,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008988</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成科技创新混合A</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2258</t>
+          <t>0.1999</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1017,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002211</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实新财富灵活配置混合</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1945</t>
+          <t>0.1086</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1055,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004100</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华安益增强混合</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29.14</t>
+          <t>86.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1296</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1093,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010372</t>
+          <t>011073</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成成长进取混合C</t>
+          <t>鹏华安润混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0831</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1131,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011073</t>
+          <t>012474</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华安润混合A</t>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0696</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1169,264 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008989</t>
+          <t>011074</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成科技创新混合C</t>
+          <t>鹏华安润混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>29.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0544</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>65.08</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003238</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新华外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011074</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华安润混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>28.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009499</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城安鑫回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009755</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城安鑫回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,32 +1173,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012473</t>
+          <t>501079</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>21.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>87.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2636</t>
+          <t>0.6347</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1747,26 +1221,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2046</t>
+          <t>0.2779</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1775,36 +1249,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>87.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1999</t>
+          <t>0.2258</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1813,36 +1287,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>002211</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>嘉实新财富灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>24.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1086</t>
+          <t>0.1945</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1851,36 +1325,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010372</t>
+          <t>004100</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成成长进取混合C</t>
+          <t>鹏华安益增强混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>29.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0625</t>
+          <t>0.1296</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1889,36 +1363,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011073</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华安润混合A</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.86</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0831</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1927,36 +1401,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012474</t>
+          <t>011073</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+          <t>鹏华安润混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>28.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0696</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1965,36 +1439,264 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>011074</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>鹏华安润混合C</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2008,96 +1710,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.73</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
+++ b/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.92</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.75</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -549,6 +566,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4780</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>62.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -908,7 +1967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1116,7 +2175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1704,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
+++ b/数据整理/stocks/A股/科创板/688768-容知日新.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>2.94</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.75</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -566,6 +583,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010656</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商均衡30混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华增华混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016336</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时卓远成长一年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>51.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013958</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016337</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时卓远成长一年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>51.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013959</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015027</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华增华混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016198</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1607,7 +2894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1967,7 +3254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2175,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2763,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
